--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1426B7-4013-4C41-9633-C33062968140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA189728-22F6-DF4E-997B-03D660190118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="460" windowWidth="36780" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTMIG 3.1.2" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="1969">
   <si>
     <t>Seq. For Order</t>
   </si>
@@ -5598,12 +5598,6 @@
     <t>(RELTYPE)</t>
   </si>
   <si>
-    <t>(ENRTPT)</t>
-  </si>
-  <si>
-    <t>(STRTPT)</t>
-  </si>
-  <si>
     <t>(STENRF)</t>
   </si>
   <si>
@@ -5956,6 +5950,15 @@
   </si>
   <si>
     <t>SDTMIG v3..1.2</t>
+  </si>
+  <si>
+    <t>BEFORE, AFTER, COINCIDENT, ONGOING, U</t>
+  </si>
+  <si>
+    <t>BEFORE, AFTER, COINCIDENT, U</t>
+  </si>
+  <si>
+    <t>BEFORE, COINCIDENT, AFTER, U</t>
   </si>
 </sst>
 </file>
@@ -6251,7 +6254,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6297,6 +6300,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="187">
@@ -6795,9 +6801,9 @@
   </sheetPr>
   <dimension ref="A1:K840"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E845" sqref="E845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6839,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -7561,7 +7567,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>115</v>
@@ -7613,7 +7619,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>122</v>
@@ -9927,7 +9933,7 @@
         <v>378</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>428</v>
@@ -10623,7 +10629,7 @@
         <v>13</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>156</v>
@@ -10693,7 +10699,7 @@
         <v>13</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>156</v>
@@ -11408,7 +11414,7 @@
         <v>13</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>41</v>
@@ -11431,7 +11437,7 @@
         <v>453</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>541</v>
@@ -11442,8 +11448,8 @@
       <c r="G166" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="11" t="s">
-        <v>1848</v>
+      <c r="H166" s="16" t="s">
+        <v>1966</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>41</v>
@@ -11775,7 +11781,7 @@
         <v>13</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>469</v>
@@ -11810,7 +11816,7 @@
         <v>13</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>147</v>
@@ -12704,7 +12710,7 @@
         <v>13</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>41</v>
@@ -12727,7 +12733,7 @@
         <v>570</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>614</v>
@@ -12738,8 +12744,8 @@
       <c r="G205" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H205" s="11" t="s">
-        <v>1848</v>
+      <c r="H205" s="16" t="s">
+        <v>1966</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>41</v>
@@ -13936,7 +13942,7 @@
         <v>13</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>41</v>
@@ -13971,7 +13977,7 @@
         <v>13</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>41</v>
@@ -13994,7 +14000,7 @@
         <v>641</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>684</v>
@@ -14006,7 +14012,7 @@
         <v>13</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>1849</v>
+        <v>1967</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>41</v>
@@ -14062,7 +14068,7 @@
         <v>641</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E245" s="7" t="s">
         <v>687</v>
@@ -14073,8 +14079,8 @@
       <c r="G245" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H245" s="11" t="s">
-        <v>1848</v>
+      <c r="H245" s="16" t="s">
+        <v>1966</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>41</v>
@@ -14373,7 +14379,7 @@
         <v>13</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>133</v>
@@ -14408,7 +14414,7 @@
         <v>13</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>469</v>
@@ -14509,7 +14515,7 @@
         <v>13</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>156</v>
@@ -14612,7 +14618,7 @@
         <v>13</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>274</v>
@@ -14884,7 +14890,7 @@
         <v>13</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>156</v>
@@ -16122,7 +16128,7 @@
         <v>13</v>
       </c>
       <c r="H306" s="11" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>133</v>
@@ -16157,7 +16163,7 @@
         <v>13</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>469</v>
@@ -19430,7 +19436,7 @@
         <v>13</v>
       </c>
       <c r="H405" s="11" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="I405" s="1" t="s">
         <v>133</v>
@@ -20064,7 +20070,7 @@
         <v>13</v>
       </c>
       <c r="H424" s="11" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="I424" s="1" t="s">
         <v>133</v>
@@ -20099,7 +20105,7 @@
         <v>13</v>
       </c>
       <c r="H425" s="11" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="I425" s="1" t="s">
         <v>469</v>
@@ -20200,7 +20206,7 @@
         <v>13</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="I428" s="1" t="s">
         <v>156</v>
@@ -20268,7 +20274,7 @@
         <v>13</v>
       </c>
       <c r="H430" s="11" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="I430" s="1" t="s">
         <v>716</v>
@@ -20369,7 +20375,7 @@
         <v>13</v>
       </c>
       <c r="H433" s="11" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>716</v>
@@ -27456,7 +27462,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="11" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="I645" s="1" t="s">
         <v>156</v>
@@ -27491,7 +27497,7 @@
         <v>13</v>
       </c>
       <c r="H646" s="11" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="I646" s="1" t="s">
         <v>716</v>
@@ -27580,7 +27586,7 @@
         <v>1363</v>
       </c>
       <c r="D649" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E649" s="7" t="s">
         <v>1416</v>
@@ -27592,7 +27598,7 @@
         <v>13</v>
       </c>
       <c r="H649" s="11" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="I649" s="1" t="s">
         <v>716</v>
@@ -27792,7 +27798,7 @@
         <v>13</v>
       </c>
       <c r="H655" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I655" s="1" t="s">
         <v>41</v>
@@ -27827,7 +27833,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I656" s="1" t="s">
         <v>41</v>
@@ -27850,7 +27856,7 @@
         <v>1363</v>
       </c>
       <c r="D657" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E657" s="7" t="s">
         <v>1435</v>
@@ -27862,7 +27868,7 @@
         <v>13</v>
       </c>
       <c r="H657" s="11" t="s">
-        <v>1849</v>
+        <v>1968</v>
       </c>
       <c r="I657" s="1" t="s">
         <v>41</v>
@@ -27918,7 +27924,7 @@
         <v>1363</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E659" s="7" t="s">
         <v>1439</v>
@@ -27929,8 +27935,8 @@
       <c r="G659" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H659" s="11" t="s">
-        <v>1848</v>
+      <c r="H659" s="16" t="s">
+        <v>1968</v>
       </c>
       <c r="I659" s="1" t="s">
         <v>41</v>
@@ -28396,7 +28402,7 @@
         <v>13</v>
       </c>
       <c r="H673" s="11" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="I673" s="1" t="s">
         <v>156</v>
@@ -28431,7 +28437,7 @@
         <v>13</v>
       </c>
       <c r="H674" s="11" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="I674" s="1" t="s">
         <v>716</v>
@@ -28520,7 +28526,7 @@
         <v>1443</v>
       </c>
       <c r="D677" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E677" s="7" t="s">
         <v>1470</v>
@@ -28532,7 +28538,7 @@
         <v>13</v>
       </c>
       <c r="H677" s="11" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="I677" s="1" t="s">
         <v>716</v>
@@ -29841,7 +29847,7 @@
         <v>13</v>
       </c>
       <c r="H716" s="11" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="I716" s="1" t="s">
         <v>716</v>
@@ -29897,7 +29903,7 @@
         <v>1508</v>
       </c>
       <c r="D718" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E718" s="7" t="s">
         <v>1562</v>
@@ -29909,7 +29915,7 @@
         <v>13</v>
       </c>
       <c r="H718" s="11" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="I718" s="1" t="s">
         <v>716</v>
@@ -30109,7 +30115,7 @@
         <v>13</v>
       </c>
       <c r="H724" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I724" s="1" t="s">
         <v>41</v>
@@ -30144,7 +30150,7 @@
         <v>13</v>
       </c>
       <c r="H725" s="11" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="I725" s="1" t="s">
         <v>41</v>
@@ -30167,7 +30173,7 @@
         <v>1508</v>
       </c>
       <c r="D726" s="8" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E726" s="7" t="s">
         <v>1581</v>
@@ -30179,7 +30185,7 @@
         <v>13</v>
       </c>
       <c r="H726" s="11" t="s">
-        <v>1849</v>
+        <v>1968</v>
       </c>
       <c r="I726" s="1" t="s">
         <v>41</v>
@@ -30235,7 +30241,7 @@
         <v>1508</v>
       </c>
       <c r="D728" s="8" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E728" s="7" t="s">
         <v>1585</v>
@@ -30246,8 +30252,8 @@
       <c r="G728" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H728" s="11" t="s">
-        <v>1848</v>
+      <c r="H728" s="16" t="s">
+        <v>1968</v>
       </c>
       <c r="I728" s="1" t="s">
         <v>41</v>
@@ -33965,7 +33971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -33980,7 +33986,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -33989,15 +33995,15 @@
         <v>1831</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1606</v>
@@ -34009,12 +34015,12 @@
         <v>1784</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>1606</v>
@@ -34031,7 +34037,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>1606</v>
@@ -34040,32 +34046,32 @@
         <v>1607</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1606</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>1878</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1606</v>
@@ -34077,12 +34083,12 @@
         <v>1822</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>378</v>
@@ -34094,12 +34100,12 @@
         <v>1781</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>378</v>
@@ -34108,32 +34114,32 @@
         <v>1363</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>378</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>1885</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>378</v>
@@ -34145,12 +34151,12 @@
         <v>1793</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>378</v>
@@ -34162,12 +34168,12 @@
         <v>1806</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>378</v>
@@ -34176,15 +34182,15 @@
         <v>1811</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>378</v>
@@ -34196,12 +34202,12 @@
         <v>1821</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>129</v>
@@ -34218,7 +34224,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>129</v>
@@ -34235,7 +34241,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>129</v>
@@ -34252,7 +34258,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>129</v>
@@ -34264,12 +34270,12 @@
         <v>1792</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>129</v>
@@ -34281,12 +34287,12 @@
         <v>1798</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>129</v>
@@ -34298,12 +34304,12 @@
         <v>1801</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>255</v>
@@ -34315,12 +34321,12 @@
         <v>1786</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>255</v>
@@ -34332,12 +34338,12 @@
         <v>1787</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>255</v>
@@ -34346,15 +34352,15 @@
         <v>1788</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>255</v>
@@ -34363,15 +34369,15 @@
         <v>691</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>255</v>
@@ -34383,12 +34389,12 @@
         <v>1794</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>255</v>
@@ -34400,12 +34406,12 @@
         <v>1796</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>255</v>
@@ -34414,15 +34420,15 @@
         <v>764</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>255</v>
@@ -34434,12 +34440,12 @@
         <v>1800</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>255</v>
@@ -34448,15 +34454,15 @@
         <v>790</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>255</v>
@@ -34465,15 +34471,15 @@
         <v>1102</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>255</v>
@@ -34485,12 +34491,12 @@
         <v>1803</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>255</v>
@@ -34499,15 +34505,15 @@
         <v>1804</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>255</v>
@@ -34516,15 +34522,15 @@
         <v>1807</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>255</v>
@@ -34536,12 +34542,12 @@
         <v>1808</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>255</v>
@@ -34553,29 +34559,29 @@
         <v>1810</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>1918</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>255</v>
@@ -34584,15 +34590,15 @@
         <v>1224</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>255</v>
@@ -34601,15 +34607,15 @@
         <v>879</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>255</v>
@@ -34618,15 +34624,15 @@
         <v>1287</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>255</v>
@@ -34638,12 +34644,12 @@
         <v>1812</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>255</v>
@@ -34655,12 +34661,12 @@
         <v>1814</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>255</v>
@@ -34672,12 +34678,12 @@
         <v>1816</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>255</v>
@@ -34686,15 +34692,15 @@
         <v>1817</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>255</v>
@@ -34706,12 +34712,12 @@
         <v>1818</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>255</v>
@@ -34723,29 +34729,29 @@
         <v>1820</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>1931</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>255</v>
@@ -34754,15 +34760,15 @@
         <v>1826</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>255</v>
@@ -34771,15 +34777,15 @@
         <v>1827</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>255</v>
@@ -34791,12 +34797,12 @@
         <v>1830</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>255</v>
@@ -34805,15 +34811,15 @@
         <v>1010</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>1722</v>
@@ -34825,29 +34831,29 @@
         <v>1823</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>1722</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>1942</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>1722</v>
@@ -34859,12 +34865,12 @@
         <v>1824</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>1722</v>
@@ -34876,29 +34882,29 @@
         <v>1825</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>1722</v>
       </c>
       <c r="C54" s="15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>1947</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>1722</v>
@@ -34907,15 +34913,15 @@
         <v>1762</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>1722</v>
@@ -34927,75 +34933,75 @@
         <v>1828</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>1590</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>1956</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C59" s="15" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>1959</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>1962</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>1963</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>1964</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>1965</v>
       </c>
     </row>
   </sheetData>

--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA189728-22F6-DF4E-997B-03D660190118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC11BC-6436-C14F-A382-507A94A0935D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="1968">
   <si>
     <t>Seq. For Order</t>
   </si>
@@ -5595,9 +5595,6 @@
     <t>(ETHNIC)</t>
   </si>
   <si>
-    <t>(RELTYPE)</t>
-  </si>
-  <si>
     <t>(STENRF)</t>
   </si>
   <si>
@@ -5622,9 +5619,6 @@
     <t>(VSRESU)</t>
   </si>
   <si>
-    <t>(SCTEST)</t>
-  </si>
-  <si>
     <t>(LBTEST)</t>
   </si>
   <si>
@@ -5959,6 +5953,9 @@
   </si>
   <si>
     <t>BEFORE, COINCIDENT, AFTER, U</t>
+  </si>
+  <si>
+    <t>ONE, MANY</t>
   </si>
 </sst>
 </file>
@@ -6802,8 +6799,8 @@
   <dimension ref="A1:K840"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E845" sqref="E845"/>
+      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H736" sqref="H736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6845,7 +6842,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>7</v>
@@ -7567,7 +7564,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>115</v>
@@ -7619,7 +7616,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>122</v>
@@ -9933,7 +9930,7 @@
         <v>378</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E120" s="7" t="s">
         <v>428</v>
@@ -10629,7 +10626,7 @@
         <v>13</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>156</v>
@@ -10699,7 +10696,7 @@
         <v>13</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>156</v>
@@ -11414,7 +11411,7 @@
         <v>13</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>41</v>
@@ -11437,7 +11434,7 @@
         <v>453</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>541</v>
@@ -11449,7 +11446,7 @@
         <v>13</v>
       </c>
       <c r="H166" s="16" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>41</v>
@@ -11781,7 +11778,7 @@
         <v>13</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>469</v>
@@ -11816,7 +11813,7 @@
         <v>13</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>147</v>
@@ -12710,7 +12707,7 @@
         <v>13</v>
       </c>
       <c r="H204" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>41</v>
@@ -12733,7 +12730,7 @@
         <v>570</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>614</v>
@@ -12745,7 +12742,7 @@
         <v>13</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>41</v>
@@ -13942,7 +13939,7 @@
         <v>13</v>
       </c>
       <c r="H241" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>41</v>
@@ -13977,7 +13974,7 @@
         <v>13</v>
       </c>
       <c r="H242" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>41</v>
@@ -14000,7 +13997,7 @@
         <v>641</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>684</v>
@@ -14012,7 +14009,7 @@
         <v>13</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>41</v>
@@ -14068,7 +14065,7 @@
         <v>641</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E245" s="7" t="s">
         <v>687</v>
@@ -14080,7 +14077,7 @@
         <v>13</v>
       </c>
       <c r="H245" s="16" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>41</v>
@@ -14379,7 +14376,7 @@
         <v>13</v>
       </c>
       <c r="H254" s="11" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>133</v>
@@ -14414,7 +14411,7 @@
         <v>13</v>
       </c>
       <c r="H255" s="11" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>469</v>
@@ -14515,7 +14512,7 @@
         <v>13</v>
       </c>
       <c r="H258" s="11" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>156</v>
@@ -14618,7 +14615,7 @@
         <v>13</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>274</v>
@@ -14890,7 +14887,7 @@
         <v>13</v>
       </c>
       <c r="H269" s="11" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>156</v>
@@ -16128,7 +16125,7 @@
         <v>13</v>
       </c>
       <c r="H306" s="11" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>133</v>
@@ -16163,7 +16160,7 @@
         <v>13</v>
       </c>
       <c r="H307" s="11" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>469</v>
@@ -19435,9 +19432,7 @@
       <c r="G405" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H405" s="11" t="s">
-        <v>1856</v>
-      </c>
+      <c r="H405" s="11"/>
       <c r="I405" s="1" t="s">
         <v>133</v>
       </c>
@@ -20070,7 +20065,7 @@
         <v>13</v>
       </c>
       <c r="H424" s="11" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I424" s="1" t="s">
         <v>133</v>
@@ -20105,7 +20100,7 @@
         <v>13</v>
       </c>
       <c r="H425" s="11" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I425" s="1" t="s">
         <v>469</v>
@@ -20206,7 +20201,7 @@
         <v>13</v>
       </c>
       <c r="H428" s="11" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I428" s="1" t="s">
         <v>156</v>
@@ -20274,7 +20269,7 @@
         <v>13</v>
       </c>
       <c r="H430" s="11" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I430" s="1" t="s">
         <v>716</v>
@@ -20375,7 +20370,7 @@
         <v>13</v>
       </c>
       <c r="H433" s="11" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I433" s="1" t="s">
         <v>716</v>
@@ -27462,7 +27457,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I645" s="1" t="s">
         <v>156</v>
@@ -27497,7 +27492,7 @@
         <v>13</v>
       </c>
       <c r="H646" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I646" s="1" t="s">
         <v>716</v>
@@ -27586,7 +27581,7 @@
         <v>1363</v>
       </c>
       <c r="D649" s="8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E649" s="7" t="s">
         <v>1416</v>
@@ -27598,7 +27593,7 @@
         <v>13</v>
       </c>
       <c r="H649" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I649" s="1" t="s">
         <v>716</v>
@@ -27798,7 +27793,7 @@
         <v>13</v>
       </c>
       <c r="H655" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I655" s="1" t="s">
         <v>41</v>
@@ -27833,7 +27828,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I656" s="1" t="s">
         <v>41</v>
@@ -27856,7 +27851,7 @@
         <v>1363</v>
       </c>
       <c r="D657" s="8" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E657" s="7" t="s">
         <v>1435</v>
@@ -27868,7 +27863,7 @@
         <v>13</v>
       </c>
       <c r="H657" s="11" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="I657" s="1" t="s">
         <v>41</v>
@@ -27924,7 +27919,7 @@
         <v>1363</v>
       </c>
       <c r="D659" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E659" s="7" t="s">
         <v>1439</v>
@@ -27936,7 +27931,7 @@
         <v>13</v>
       </c>
       <c r="H659" s="16" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="I659" s="1" t="s">
         <v>41</v>
@@ -28402,7 +28397,7 @@
         <v>13</v>
       </c>
       <c r="H673" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I673" s="1" t="s">
         <v>156</v>
@@ -28437,7 +28432,7 @@
         <v>13</v>
       </c>
       <c r="H674" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I674" s="1" t="s">
         <v>716</v>
@@ -28526,7 +28521,7 @@
         <v>1443</v>
       </c>
       <c r="D677" s="8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E677" s="7" t="s">
         <v>1470</v>
@@ -28538,7 +28533,7 @@
         <v>13</v>
       </c>
       <c r="H677" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I677" s="1" t="s">
         <v>716</v>
@@ -29847,7 +29842,7 @@
         <v>13</v>
       </c>
       <c r="H716" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I716" s="1" t="s">
         <v>716</v>
@@ -29903,7 +29898,7 @@
         <v>1508</v>
       </c>
       <c r="D718" s="8" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E718" s="7" t="s">
         <v>1562</v>
@@ -29915,7 +29910,7 @@
         <v>13</v>
       </c>
       <c r="H718" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I718" s="1" t="s">
         <v>716</v>
@@ -30115,7 +30110,7 @@
         <v>13</v>
       </c>
       <c r="H724" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I724" s="1" t="s">
         <v>41</v>
@@ -30150,7 +30145,7 @@
         <v>13</v>
       </c>
       <c r="H725" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="I725" s="1" t="s">
         <v>41</v>
@@ -30173,7 +30168,7 @@
         <v>1508</v>
       </c>
       <c r="D726" s="8" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E726" s="7" t="s">
         <v>1581</v>
@@ -30185,7 +30180,7 @@
         <v>13</v>
       </c>
       <c r="H726" s="11" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="I726" s="1" t="s">
         <v>41</v>
@@ -30241,7 +30236,7 @@
         <v>1508</v>
       </c>
       <c r="D728" s="8" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E728" s="7" t="s">
         <v>1585</v>
@@ -30253,7 +30248,7 @@
         <v>13</v>
       </c>
       <c r="H728" s="16" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="I728" s="1" t="s">
         <v>41</v>
@@ -30473,7 +30468,7 @@
         <v>13</v>
       </c>
       <c r="H735" s="11" t="s">
-        <v>1847</v>
+        <v>1967</v>
       </c>
       <c r="J735" s="2" t="s">
         <v>1602</v>
@@ -33986,7 +33981,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -33995,15 +33990,15 @@
         <v>1831</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>1606</v>
@@ -34015,12 +34010,12 @@
         <v>1784</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>1606</v>
@@ -34037,7 +34032,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>1606</v>
@@ -34046,32 +34041,32 @@
         <v>1607</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1606</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>1876</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>1606</v>
@@ -34083,12 +34078,12 @@
         <v>1822</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>378</v>
@@ -34100,12 +34095,12 @@
         <v>1781</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>378</v>
@@ -34114,32 +34109,32 @@
         <v>1363</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>378</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>1883</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>378</v>
@@ -34151,12 +34146,12 @@
         <v>1793</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>378</v>
@@ -34168,12 +34163,12 @@
         <v>1806</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>378</v>
@@ -34182,15 +34177,15 @@
         <v>1811</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>378</v>
@@ -34202,12 +34197,12 @@
         <v>1821</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>129</v>
@@ -34224,7 +34219,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>129</v>
@@ -34241,7 +34236,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>129</v>
@@ -34258,7 +34253,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>129</v>
@@ -34270,12 +34265,12 @@
         <v>1792</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>129</v>
@@ -34287,12 +34282,12 @@
         <v>1798</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>129</v>
@@ -34304,12 +34299,12 @@
         <v>1801</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>255</v>
@@ -34321,12 +34316,12 @@
         <v>1786</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>255</v>
@@ -34338,12 +34333,12 @@
         <v>1787</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>255</v>
@@ -34352,15 +34347,15 @@
         <v>1788</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>255</v>
@@ -34369,15 +34364,15 @@
         <v>691</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>255</v>
@@ -34389,12 +34384,12 @@
         <v>1794</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>255</v>
@@ -34406,12 +34401,12 @@
         <v>1796</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>255</v>
@@ -34420,15 +34415,15 @@
         <v>764</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>255</v>
@@ -34440,12 +34435,12 @@
         <v>1800</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>255</v>
@@ -34454,15 +34449,15 @@
         <v>790</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>255</v>
@@ -34471,15 +34466,15 @@
         <v>1102</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>255</v>
@@ -34491,12 +34486,12 @@
         <v>1803</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>255</v>
@@ -34505,15 +34500,15 @@
         <v>1804</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>255</v>
@@ -34522,15 +34517,15 @@
         <v>1807</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>255</v>
@@ -34542,12 +34537,12 @@
         <v>1808</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>255</v>
@@ -34559,29 +34554,29 @@
         <v>1810</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>1916</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>255</v>
@@ -34590,15 +34585,15 @@
         <v>1224</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>255</v>
@@ -34607,15 +34602,15 @@
         <v>879</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>255</v>
@@ -34624,15 +34619,15 @@
         <v>1287</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>255</v>
@@ -34644,12 +34639,12 @@
         <v>1812</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>255</v>
@@ -34661,12 +34656,12 @@
         <v>1814</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>255</v>
@@ -34678,12 +34673,12 @@
         <v>1816</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>255</v>
@@ -34692,15 +34687,15 @@
         <v>1817</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>255</v>
@@ -34712,12 +34707,12 @@
         <v>1818</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>255</v>
@@ -34729,29 +34724,29 @@
         <v>1820</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>255</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>1929</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>255</v>
@@ -34760,15 +34755,15 @@
         <v>1826</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>255</v>
@@ -34777,15 +34772,15 @@
         <v>1827</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>255</v>
@@ -34797,12 +34792,12 @@
         <v>1830</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>255</v>
@@ -34811,15 +34806,15 @@
         <v>1010</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>1722</v>
@@ -34831,29 +34826,29 @@
         <v>1823</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>1722</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>1940</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>1722</v>
@@ -34865,12 +34860,12 @@
         <v>1824</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>1722</v>
@@ -34882,29 +34877,29 @@
         <v>1825</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>1722</v>
       </c>
       <c r="C54" s="15" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>1945</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>1722</v>
@@ -34913,15 +34908,15 @@
         <v>1762</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>1722</v>
@@ -34933,75 +34928,75 @@
         <v>1828</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>1590</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>1954</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C59" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>1957</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>1959</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>1960</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>1961</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>1963</v>
       </c>
     </row>
   </sheetData>

--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-1-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/car/Documents/rails/Glandon/db/load/cdisc/sdtm_ig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC11BC-6436-C14F-A382-507A94A0935D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B1AB5-DF0D-C343-8841-8F5D6D111342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-620" yWindow="-17300" windowWidth="28800" windowHeight="15580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTMIG 3.1.2" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7779" uniqueCount="1969">
   <si>
     <t>Seq. For Order</t>
   </si>
@@ -5956,13 +5956,16 @@
   </si>
   <si>
     <t>ONE, MANY</t>
+  </si>
+  <si>
+    <t>Supplemental Qualifiers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6000,8 +6003,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6030,6 +6047,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -6062,7 +6084,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6250,8 +6272,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6301,8 +6324,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="187" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="188">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6396,6 +6422,7 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="187" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6798,7 +6825,7 @@
   </sheetPr>
   <dimension ref="A1:K840"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H736" sqref="H736"/>
     </sheetView>
@@ -33964,10 +33991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34999,6 +35026,23 @@
         <v>1961</v>
       </c>
     </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>1957</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
